--- a/public/static/excel/supplierPriceLadder.xlsx
+++ b/public/static/excel/supplierPriceLadder.xlsx
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>计费方向</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>计费方式</t>
+  </si>
+  <si>
+    <t>价格名称</t>
   </si>
   <si>
     <t>重泡货比</t>
@@ -283,12 +286,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -296,16 +344,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,106 +419,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,19 +455,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,163 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +646,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,8 +723,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -684,65 +746,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -751,10 +754,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,133 +766,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,37 +1269,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.5454545454545" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.8181818181818" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="12" width="17.9090909090909" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.0909090909091" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="16.7272727272727" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.0909090909091" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7272727272727" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.3636363636364" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.4545454545455" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5454545454545" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.0909090909091" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6363636363636" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5454545454545" style="1" customWidth="1"/>
-    <col min="24" max="24" width="27.2727272727273" style="1" customWidth="1"/>
-    <col min="25" max="26" width="18.9090909090909" style="1" customWidth="1"/>
-    <col min="27" max="28" width="17.0909090909091" style="1" customWidth="1"/>
-    <col min="29" max="29" width="29.7272727272727" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="15.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="13" width="17.9090909090909" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.0909090909091" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="16.7272727272727" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.0909090909091" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7272727272727" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.3636363636364" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.4545454545455" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5454545454545" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.0909090909091" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.6363636363636" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5454545454545" style="1" customWidth="1"/>
+    <col min="25" max="25" width="27.2727272727273" style="1" customWidth="1"/>
+    <col min="26" max="27" width="18.9090909090909" style="1" customWidth="1"/>
+    <col min="28" max="29" width="17.0909090909091" style="1" customWidth="1"/>
+    <col min="30" max="30" width="29.7272727272727" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:29">
+    <row r="1" ht="18" customHeight="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1315,10 +1318,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1336,19 +1339,19 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1360,10 +1363,10 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -1375,24 +1378,28 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
       <formula1>"按出发地,按目的地"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"快递,快运,电商件"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
